--- a/test/01172_1142634_201901_202010_errorBucket2.xlsx
+++ b/test/01172_1142634_201901_202010_errorBucket2.xlsx
@@ -932,7 +932,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B2 B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
